--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Rspo3</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,27 +558,27 @@
         <v>0.5260359999999999</v>
       </c>
       <c r="O2">
-        <v>0.414882210303281</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5154067662594317</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005997394884444444</v>
+        <v>0.01185837109955556</v>
       </c>
       <c r="R2">
-        <v>0.005397655395999999</v>
+        <v>0.106725339896</v>
       </c>
       <c r="S2">
-        <v>0.0002816114599784987</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="T2">
-        <v>0.0003517335867236704</v>
+        <v>0.0134153952845566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.954393</v>
+      </c>
+      <c r="H3">
+        <v>14.863179</v>
+      </c>
+      <c r="I3">
+        <v>0.9827953701592058</v>
+      </c>
+      <c r="J3">
+        <v>0.9827953701592059</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.003420333333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.010261</v>
-      </c>
-      <c r="I3">
-        <v>0.0006787744882400219</v>
-      </c>
-      <c r="J3">
-        <v>0.0006824388225951697</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.2472935</v>
+        <v>0.1753453333333333</v>
       </c>
       <c r="N3">
-        <v>0.494587</v>
+        <v>0.5260359999999999</v>
       </c>
       <c r="O3">
-        <v>0.585117789696719</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4845932337405682</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0008458262011666666</v>
+        <v>0.8687296920493333</v>
       </c>
       <c r="R3">
-        <v>0.005074957206999999</v>
+        <v>7.818567228443999</v>
       </c>
       <c r="S3">
-        <v>0.0003971630282615232</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="T3">
-        <v>0.0003307052358714992</v>
+        <v>0.9827953701592059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.954393</v>
+        <v>0.019102</v>
       </c>
       <c r="H4">
-        <v>14.863179</v>
+        <v>0.057306</v>
       </c>
       <c r="I4">
-        <v>0.9832128174003353</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J4">
-        <v>0.9885206487458582</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,208 +682,22 @@
         <v>0.5260359999999999</v>
       </c>
       <c r="O4">
-        <v>0.414882210303281</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5154067662594317</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.8687296920493333</v>
+        <v>0.003349446557333333</v>
       </c>
       <c r="R4">
-        <v>7.818567228443999</v>
+        <v>0.030145019016</v>
       </c>
       <c r="S4">
-        <v>0.4079175068815674</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="T4">
-        <v>0.5094902309507784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.954393</v>
-      </c>
-      <c r="H5">
-        <v>14.863179</v>
-      </c>
-      <c r="I5">
-        <v>0.9832128174003353</v>
-      </c>
-      <c r="J5">
-        <v>0.9885206487458582</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.2472935</v>
-      </c>
-      <c r="N5">
-        <v>0.494587</v>
-      </c>
-      <c r="O5">
-        <v>0.585117789696719</v>
-      </c>
-      <c r="P5">
-        <v>0.4845932337405682</v>
-      </c>
-      <c r="Q5">
-        <v>1.2251891853455</v>
-      </c>
-      <c r="R5">
-        <v>7.351135112072999</v>
-      </c>
-      <c r="S5">
-        <v>0.5752953105187679</v>
-      </c>
-      <c r="T5">
-        <v>0.4790304177950798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.08117000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.16234</v>
-      </c>
-      <c r="I6">
-        <v>0.01610840811142459</v>
-      </c>
-      <c r="J6">
-        <v>0.01079691243154662</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1753453333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5260359999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.414882210303281</v>
-      </c>
-      <c r="P6">
-        <v>0.5154067662594317</v>
-      </c>
-      <c r="Q6">
-        <v>0.01423278070666667</v>
-      </c>
-      <c r="R6">
-        <v>0.08539668423999999</v>
-      </c>
-      <c r="S6">
-        <v>0.006683091961735136</v>
-      </c>
-      <c r="T6">
-        <v>0.0055648017219297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.08117000000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.16234</v>
-      </c>
-      <c r="I7">
-        <v>0.01610840811142459</v>
-      </c>
-      <c r="J7">
-        <v>0.01079691243154662</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2472935</v>
-      </c>
-      <c r="N7">
-        <v>0.494587</v>
-      </c>
-      <c r="O7">
-        <v>0.585117789696719</v>
-      </c>
-      <c r="P7">
-        <v>0.4845932337405682</v>
-      </c>
-      <c r="Q7">
-        <v>0.020072813395</v>
-      </c>
-      <c r="R7">
-        <v>0.08029125358</v>
-      </c>
-      <c r="S7">
-        <v>0.009425316149689458</v>
-      </c>
-      <c r="T7">
-        <v>0.005232110709616917</v>
+        <v>0.003789234556237496</v>
       </c>
     </row>
   </sheetData>
